--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\Flammable Blood\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1761F4D5-B3E2-4857-9C6F-AD2568FF1601}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC691F4-F8B9-4D9E-9275-9327F01F3DEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
+    <workbookView xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -727,29 +727,27 @@
       <c r="D4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="9">
         <f>SUM(E4:E578)</f>
-        <v>57</v>
+        <v>54.5</v>
       </c>
       <c r="G4" s="9">
         <v>3</v>
       </c>
       <c r="H4" s="10">
         <f>ROUND(F4/G4, 0)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7"/>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC691F4-F8B9-4D9E-9275-9327F01F3DEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03068690-DF2E-489B-A163-68F1C245DE52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>Particle FX (Basic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapons Mastering</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +680,7 @@
   <dimension ref="A2:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -730,14 +734,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="9">
         <f>SUM(E4:E578)</f>
-        <v>54.5</v>
+        <v>55.5</v>
       </c>
       <c r="G4" s="9">
         <v>3</v>
       </c>
       <c r="H4" s="10">
         <f>ROUND(F4/G4, 0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -751,44 +755,44 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
-      <c r="D6" s="13" t="s">
-        <v>2</v>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
       <c r="D7" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
       <c r="D8" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
       <c r="D9" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
       <c r="D10" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2">
         <v>3.5</v>
@@ -797,25 +801,25 @@
     <row r="11" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
       <c r="D11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
+      <c r="D12" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2">
         <v>3</v>
@@ -823,17 +827,17 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
-      <c r="D14" s="13" t="s">
-        <v>8</v>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E14" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2">
         <v>2.5</v>
@@ -841,62 +845,62 @@
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
+      <c r="D16" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="E16" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
-      <c r="D17" s="13" t="s">
-        <v>15</v>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E17" s="2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="D18" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
       <c r="D19" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="D20" s="13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E20" s="2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="D21" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="22" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="D22" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2">
         <v>3</v>
@@ -905,16 +909,20 @@
     <row r="23" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="D23" s="13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="25" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03068690-DF2E-489B-A163-68F1C245DE52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F230A21D-8603-4F5C-ACEE-F71DFD4FCB8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>Weapons Mastering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-07 Bullet particle system, bullet shells, bullet collision</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,33 +328,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -359,8 +336,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -679,19 +680,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="29.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.25" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="19.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -699,285 +701,445 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7">
+      <c r="B4" s="4"/>
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="9">
+      <c r="E4" s="7"/>
+      <c r="F4" s="12">
         <f>SUM(E4:E578)</f>
         <v>55.5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="12">
         <v>3</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="13">
         <f>ROUND(F4/G4, 0)</f>
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7"/>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7"/>
-      <c r="D7" s="13" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="7">
         <v>2</v>
       </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="7"/>
-      <c r="D8" s="13" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="7">
         <v>3</v>
       </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="7"/>
-      <c r="D9" s="13" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="7">
         <v>2</v>
       </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="7"/>
-      <c r="D10" s="13" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="7">
         <v>3.5</v>
       </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="7"/>
-      <c r="D11" s="13" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="7">
         <v>3.5</v>
       </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="7"/>
-      <c r="D12" s="13" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="7">
         <v>4.5</v>
       </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="7"/>
-      <c r="D13" s="1" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="7">
         <v>3</v>
       </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="7"/>
-      <c r="D14" s="1" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="7">
         <v>3</v>
       </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="7"/>
-      <c r="D15" s="13" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="7">
         <v>2.5</v>
       </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="7"/>
-      <c r="D16" s="13" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="7"/>
-      <c r="D17" s="1" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="7"/>
-      <c r="D18" s="13" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="7"/>
-      <c r="D19" s="13" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="7">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="7"/>
-      <c r="D20" s="13" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="7"/>
-      <c r="D21" s="13" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="7">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="7"/>
-      <c r="D22" s="13" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="7"/>
-      <c r="D23" s="13" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="7"/>
-      <c r="D24" s="13" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="7"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="7"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="7"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="7"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="7"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="7"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="7"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="7"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="7"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="7"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="3:5" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="7"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F230A21D-8603-4F5C-ACEE-F71DFD4FCB8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B2A158-2F06-46A4-8CC5-8557D8F46B71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>2019-04-07 Bullet particle system, bullet shells, bullet collision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-08 Multiple weapons, weapon count limit not set yet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +685,7 @@
   <dimension ref="A2:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -764,10 +768,12 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
@@ -782,7 +788,9 @@
     <row r="7" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11">
+        <v>0.8</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
       </c>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B2A158-2F06-46A4-8CC5-8557D8F46B71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056CE3B2-83A5-4649-8EF6-A8F54E5FF5CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
+    <workbookView xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-04-08 Multiple weapons, weapon count limit not set yet</t>
+    <t>2019-04-08 Multiple weapons, weapon count limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +685,7 @@
   <dimension ref="A2:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -741,14 +741,14 @@
       <c r="E4" s="7"/>
       <c r="F4" s="12">
         <f>SUM(E4:E578)</f>
-        <v>55.5</v>
+        <v>52.5</v>
       </c>
       <c r="G4" s="12">
         <v>3</v>
       </c>
       <c r="H4" s="13">
         <f>ROUND(F4/G4, 0)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -778,9 +778,7 @@
       <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -789,14 +787,12 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056CE3B2-83A5-4649-8EF6-A8F54E5FF5CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DA6986-46F1-48E4-A845-9A5B883E490E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>2019-04-08 Multiple weapons, weapon count limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/9 Hunting Rifle (Not finnished)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +689,7 @@
   <dimension ref="A2:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -784,10 +788,12 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="11">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DA6986-46F1-48E4-A845-9A5B883E490E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F07E329-6FD8-4C3F-B98B-D8680593BB4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,7 +149,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4/9 Hunting Rifle (Not finnished)</t>
+    <t>2019-04-09 Hunting Rifle (Not finnished)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-12 Hunting Rifle starting to piss me off</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +693,7 @@
   <dimension ref="A2:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -793,7 +797,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="11">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
@@ -804,7 +808,9 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="11"/>
       <c r="D8" s="4" t="s">

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F07E329-6FD8-4C3F-B98B-D8680593BB4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91138465-7A67-4E14-99E6-2B334BD9FC4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,14 @@
   </si>
   <si>
     <t>2019-04-12 Hunting Rifle starting to piss me off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-13 HuntingRifle finished (Maybe add a scope later?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand sprite mesh animation fix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,6 +382,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -693,7 +704,7 @@
   <dimension ref="A2:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -749,7 +760,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="12">
         <f>SUM(E4:E578)</f>
-        <v>52.5</v>
+        <v>53.5</v>
       </c>
       <c r="G4" s="12">
         <v>3</v>
@@ -797,7 +808,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="11">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
@@ -824,7 +835,9 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="11"/>
       <c r="D9" s="4" t="s">
@@ -841,11 +854,11 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3.5</v>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -856,7 +869,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
       <c r="D11" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="7">
         <v>3.5</v>
@@ -870,10 +883,10 @@
       <c r="B12" s="4"/>
       <c r="C12" s="11"/>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="7">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -884,10 +897,10 @@
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E13" s="7">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -898,7 +911,7 @@
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="7">
         <v>3</v>
@@ -912,10 +925,10 @@
       <c r="B15" s="4"/>
       <c r="C15" s="11"/>
       <c r="D15" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E15" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -926,7 +939,7 @@
       <c r="B16" s="4"/>
       <c r="C16" s="11"/>
       <c r="D16" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="7">
         <v>2.5</v>
@@ -940,10 +953,10 @@
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
       <c r="D17" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E17" s="7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -954,10 +967,10 @@
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E18" s="7">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -968,10 +981,10 @@
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E19" s="7">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -982,10 +995,10 @@
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
       <c r="D20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -996,10 +1009,10 @@
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
       <c r="D21" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E21" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1010,10 +1023,10 @@
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
       <c r="D22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="7">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1024,7 +1037,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
       <c r="D23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E23" s="7">
         <v>3</v>
@@ -1038,10 +1051,10 @@
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
       <c r="D24" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E24" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1051,8 +1064,12 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2.5</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91138465-7A67-4E14-99E6-2B334BD9FC4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39673EE7-217E-4F83-BC34-4EFFCEF13086}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,14 @@
   </si>
   <si>
     <t>Hand sprite mesh animation fix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-15 Working on PointBlank Shotgun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +712,7 @@
   <dimension ref="A2:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -760,14 +768,14 @@
       <c r="E4" s="7"/>
       <c r="F4" s="12">
         <f>SUM(E4:E578)</f>
-        <v>53.5</v>
+        <v>55.5</v>
       </c>
       <c r="G4" s="12">
         <v>3</v>
       </c>
       <c r="H4" s="13">
         <f>ROUND(F4/G4, 0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -808,7 +816,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="11">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
@@ -851,7 +859,9 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="11"/>
       <c r="D10" s="1" t="s">
@@ -868,11 +878,11 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3.5</v>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -883,7 +893,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="11"/>
       <c r="D12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="7">
         <v>3.5</v>
@@ -897,10 +907,10 @@
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
       <c r="D13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="7">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -911,10 +921,10 @@
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E14" s="7">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -925,7 +935,7 @@
       <c r="B15" s="4"/>
       <c r="C15" s="11"/>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="7">
         <v>3</v>
@@ -939,10 +949,10 @@
       <c r="B16" s="4"/>
       <c r="C16" s="11"/>
       <c r="D16" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E16" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -953,7 +963,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
       <c r="D17" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="7">
         <v>2.5</v>
@@ -967,10 +977,10 @@
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -981,10 +991,10 @@
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
       <c r="D19" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E19" s="7">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -995,10 +1005,10 @@
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
       <c r="D20" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E20" s="7">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1009,10 +1019,10 @@
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
       <c r="D21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1023,10 +1033,10 @@
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
       <c r="D22" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E22" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1037,10 +1047,10 @@
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="7">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1051,7 +1061,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
       <c r="D24" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" s="7">
         <v>3</v>
@@ -1065,10 +1075,10 @@
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
       <c r="D25" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E25" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1078,8 +1088,12 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="7"/>
+      <c r="D26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2.5</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39673EE7-217E-4F83-BC34-4EFFCEF13086}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A671C56E-32D9-4750-9872-6E1EDEDF2CCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
+    <workbookView xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,10 @@
   </si>
   <si>
     <t>2019-04-15 Working on PointBlank Shotgun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-16 PointBlank Shotgun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +716,7 @@
   <dimension ref="A2:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -816,7 +820,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
@@ -875,7 +879,9 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
       <c r="D11" s="1" t="s">

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A671C56E-32D9-4750-9872-6E1EDEDF2CCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810D5702-3945-45CF-AEBF-285E21F5CAE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,15 +165,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Moon walk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019-04-15 Working on PointBlank Shotgun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019-04-16 PointBlank Shotgun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon walk (Hee hee)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elevators (Or as I like to call them, the british way, lifts.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 2019-05-09 Weapon system fixes, Testing enemy (Patrol, chase, cliff detection), Ground textures</t>
+  </si>
+  <si>
+    <t>2019-05-09 Fixed Ground Textures, Jump animation fixed, Started working on damage stats calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crouch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -352,7 +367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +411,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,14 +790,14 @@
       <c r="E4" s="7"/>
       <c r="F4" s="12">
         <f>SUM(E4:E578)</f>
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="G4" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="13">
         <f>ROUND(F4/G4, 0)</f>
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -835,13 +853,13 @@
         <v>33</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="7">
-        <v>3</v>
-      </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -851,7 +869,9 @@
         <v>34</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>0.2</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
@@ -864,7 +884,7 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="11"/>
@@ -880,40 +900,44 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="11"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E11" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="7">
-        <v>3.5</v>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
       <c r="D13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="7">
         <v>3.5</v>
@@ -927,10 +951,10 @@
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
       <c r="D14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="7">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -941,10 +965,10 @@
       <c r="B15" s="4"/>
       <c r="C15" s="11"/>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E15" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -953,12 +977,14 @@
     <row r="16" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="11">
+        <v>0.5</v>
+      </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -969,10 +995,10 @@
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
       <c r="D17" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E17" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -983,7 +1009,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
       <c r="D18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="7">
         <v>2.5</v>
@@ -997,10 +1023,10 @@
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
       <c r="D19" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E19" s="7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1011,10 +1037,10 @@
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
       <c r="D20" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E20" s="7">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1025,10 +1051,10 @@
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E21" s="7">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1039,10 +1065,10 @@
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
       <c r="D22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1053,10 +1079,10 @@
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
       <c r="D23" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E23" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1067,10 +1093,10 @@
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
       <c r="D24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="7">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1081,7 +1107,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
       <c r="D25" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25" s="7">
         <v>3</v>
@@ -1095,10 +1121,10 @@
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
       <c r="D26" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E26" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1108,8 +1134,12 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2.5</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1118,8 +1148,12 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2.5</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810D5702-3945-45CF-AEBF-285E21F5CAE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E112E26F-7559-4107-A26F-B5048466A154}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +194,10 @@
   </si>
   <si>
     <t>Crouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-25 Bullet disapearing bug fixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -947,7 +956,9 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
       <c r="D14" s="4" t="s">

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E112E26F-7559-4107-A26F-B5048466A154}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A4FE6F-01C7-4D2C-BFD4-CC20289AA9D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Damage stats calculation</t>
   </si>
   <si>
-    <t>Melee weapons</t>
-  </si>
-  <si>
     <t>Jetpack</t>
   </si>
   <si>
@@ -197,7 +194,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-05-25 Bullet disapearing bug fixed</t>
+    <t>Melee weapons (stun)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-25 Bullet disapearing bug fixed, Damage stats calculation, Basic crouch system</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -764,30 +765,30 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="11">
@@ -799,26 +800,26 @@
       <c r="E4" s="7"/>
       <c r="F4" s="12">
         <f>SUM(E4:E578)</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G4" s="12">
         <v>2</v>
       </c>
       <c r="H4" s="13">
         <f>ROUND(F4/G4, 0)</f>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="11">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="4"/>
@@ -827,14 +828,14 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="11">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
@@ -843,7 +844,7 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="11">
@@ -859,7 +860,7 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="11">
@@ -875,62 +876,60 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E10" s="14"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="11"/>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="14">
         <v>2</v>
@@ -941,12 +940,12 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
       <c r="D13" s="4" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E13" s="7">
         <v>3.5</v>
@@ -955,14 +954,14 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
       <c r="D14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="7">
         <v>3.5</v>
@@ -974,12 +973,11 @@
     <row r="15" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="11"/>
       <c r="D15" s="4" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E15" s="7">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -988,14 +986,12 @@
     <row r="16" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E16" s="7">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1004,12 +1000,14 @@
     <row r="17" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="11"/>
+      <c r="C17" s="11">
+        <v>0.5</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1020,10 +1018,10 @@
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
       <c r="D18" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E18" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1034,7 +1032,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
       <c r="D19" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="7">
         <v>2.5</v>
@@ -1048,24 +1046,22 @@
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E20" s="7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
       <c r="D21" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E21" s="7">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1076,10 +1072,10 @@
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
       <c r="D22" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E22" s="7">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1090,10 +1086,10 @@
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
       <c r="D23" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E23" s="7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1104,10 +1100,10 @@
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
       <c r="D24" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1118,10 +1114,10 @@
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
       <c r="D25" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25" s="7">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1132,7 +1128,7 @@
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
       <c r="D26" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E26" s="7">
         <v>3</v>
@@ -1141,15 +1137,15 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
       <c r="D27" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E27" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1160,7 +1156,7 @@
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
       <c r="D28" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E28" s="7">
         <v>2.5</v>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A4FE6F-01C7-4D2C-BFD4-CC20289AA9D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4B3799-1CB7-4362-8124-88E2B32B8287}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,10 @@
   </si>
   <si>
     <t>2019-05-25 Bullet disapearing bug fixed, Damage stats calculation, Basic crouch system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-26 Updated crouch system, Updated enemy death</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -971,7 +975,9 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="B15" s="4"/>
       <c r="D15" s="4" t="s">
         <v>38</v>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4B3799-1CB7-4362-8124-88E2B32B8287}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95FACFA-24CB-437F-9C89-7D8F112DEFF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="120" windowWidth="18225" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95FACFA-24CB-437F-9C89-7D8F112DEFF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE173C01-4605-415A-B245-FFA81EF1E290}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,10 @@
   </si>
   <si>
     <t>2019-05-26 Updated crouch system, Updated enemy death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-29 Working on Michael Jackson</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -990,7 +994,9 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="B16" s="4"/>
       <c r="C16" s="11"/>
       <c r="D16" s="4" t="s">

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE173C01-4605-415A-B245-FFA81EF1E290}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6987B42-A4BC-443D-9DF9-A8F87A75D4C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,14 @@
   </si>
   <si>
     <t>2019-05-29 Working on Michael Jackson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note to self:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-29 I know it's been tough. Please don't give up, they rely on you.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,503 +757,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
-  <dimension ref="A2:H35"/>
+  <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="19.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="19.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="11">
+      <c r="C4" s="4"/>
+      <c r="D4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="12">
-        <f>SUM(E4:E578)</f>
+      <c r="F4" s="7"/>
+      <c r="G4" s="12">
+        <f>SUM(F4:F578)</f>
         <v>52</v>
       </c>
-      <c r="G4" s="12">
+      <c r="H4" s="12">
         <v>2</v>
       </c>
-      <c r="H4" s="13">
-        <f>ROUND(F4/G4, 0)</f>
+      <c r="I4" s="13">
+        <f>ROUND(G4/H4, 0)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="11">
+      <c r="C5" s="4"/>
+      <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="11">
+      <c r="C6" s="4"/>
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="11">
+      <c r="C7" s="4"/>
+      <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="11">
+      <c r="C8" s="4"/>
+      <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="11">
+      <c r="C9" s="4"/>
+      <c r="D9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="11">
+      <c r="C10" s="4"/>
+      <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="15">
+      <c r="C11" s="4"/>
+      <c r="D11" s="15">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="14">
+      <c r="F12" s="14">
         <v>2</v>
       </c>
-      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <v>3.5</v>
       </c>
-      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
         <v>3.5</v>
       </c>
-      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <v>2.5</v>
       </c>
-      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="7">
         <v>6</v>
       </c>
-      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
-      <c r="C17" s="11">
+      <c r="C17" s="4"/>
+      <c r="D17" s="11">
         <v>0.5</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
         <v>1.5</v>
       </c>
-      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18" s="7">
         <v>3</v>
       </c>
-      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19" s="7">
         <v>2.5</v>
       </c>
-      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20" s="7">
         <v>2.5</v>
       </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21" s="7">
         <v>3</v>
       </c>
-      <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22" s="7">
         <v>1.5</v>
       </c>
-      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23" s="7">
         <v>3.5</v>
       </c>
-      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24" s="7">
         <v>4</v>
       </c>
-      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25" s="7">
         <v>4.5</v>
       </c>
-      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="7">
+      <c r="F26" s="7">
         <v>3</v>
       </c>
-      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="2:9" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F27" s="7">
         <v>3</v>
       </c>
-      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="7">
+      <c r="F28" s="7">
         <v>2.5</v>
       </c>
-      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6987B42-A4BC-443D-9DF9-A8F87A75D4C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F109C5FE-544E-4C84-AF9F-A3D92B455B4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,10 @@
   </si>
   <si>
     <t>2019-05-29 I know it's been tough. Please don't give up, they rely on you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 2019-06-02 Moon walk finished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -823,14 +827,14 @@
       <c r="F4" s="7"/>
       <c r="G4" s="12">
         <f>SUM(F4:F578)</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" s="12">
         <v>2</v>
       </c>
       <c r="I4" s="13">
         <f>ROUND(G4/H4, 0)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -951,14 +955,12 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="14">
-        <v>2</v>
-      </c>
+      <c r="F12" s="14"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1027,7 +1029,9 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
+      <c r="B17" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="11">
         <v>0.5</v>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F109C5FE-544E-4C84-AF9F-A3D92B455B4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B8262C-5453-4122-AD31-22109F7E943B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
+    <workbookView xWindow="43050" yWindow="60" windowWidth="14460" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~ 2019-06-02 Moon walk finished</t>
+    <t>~ 2019-06-02 Moon walk finished, Trying to work on stun arm (Not working for some fucking reason)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -970,7 +970,9 @@
         <v>40</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11">
+        <v>0.2</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>42</v>
       </c>
@@ -1028,7 +1030,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>48</v>
       </c>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B8262C-5453-4122-AD31-22109F7E943B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E120057-C032-43E3-9E2E-A05081859A19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43050" yWindow="60" windowWidth="14460" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,54 @@
   </si>
   <si>
     <t>~ 2019-06-02 Moon walk finished, Trying to work on stun arm (Not working for some fucking reason)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-06-03 Stun arm sprites &amp; animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleaning and mastering #1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-06-03 Will be working till 15th of June (Exam coming up on July), that is about 2 weeks from now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project [Flammable Blood]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Started:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>March</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimated Time of finnish:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project for after school club 2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HB RYU and his unimportant quite useless friends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contributers (Details in Google Drive)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I seriously have no clue what to write in here.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +368,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,6 +499,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -761,514 +824,626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
-  <dimension ref="A2:I35"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="19.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="50.375" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="17">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="11">
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="12">
-        <f>SUM(F4:F578)</f>
-        <v>50</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="G7" s="7"/>
+      <c r="H7" s="12">
+        <f>SUM(G7:G581)</f>
+        <v>52.5</v>
+      </c>
+      <c r="I7" s="12">
         <v>2</v>
       </c>
-      <c r="I4" s="13">
-        <f>ROUND(G4/H4, 0)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="J7" s="13">
+        <f>ROUND(H7/I7, 0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="11">
+      <c r="D8" s="4"/>
+      <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="11">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="11">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="15">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="11">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="G13" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="C13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="14"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="G14" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="14"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="G15" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="14"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="7">
-        <v>6</v>
-      </c>
-      <c r="G16" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="7">
+        <v>3.5</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:9" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G17" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>3.5</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="7">
-        <v>3</v>
-      </c>
-      <c r="G18" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2.5</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="G19" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="C19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="7">
+        <v>6</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="C20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="C21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="7">
         <v>3</v>
       </c>
-      <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2.5</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="G23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="7">
+        <v>3</v>
+      </c>
       <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="7">
-        <v>4</v>
-      </c>
-      <c r="G24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="7">
+        <v>2.5</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="G25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="7">
+        <v>3</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="7">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1.5</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="2:9" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="7">
-        <v>3</v>
-      </c>
-      <c r="G27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7">
+        <v>3.5</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="G28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="7">
+        <v>4</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="7">
+        <v>4.5</v>
+      </c>
       <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="7">
+        <v>3</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="7">
+        <v>2.5</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="7">
+        <v>2.5</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="2:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E120057-C032-43E3-9E2E-A05081859A19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6126B3-D4DE-422E-8879-E715AFAACB7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,10 @@
   </si>
   <si>
     <t>I seriously have no clue what to write in here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 2019-06-05 Working on stun arm, some unexpected problems</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1184,7 +1188,9 @@
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="11"/>
       <c r="F22" s="4" t="s">

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6126B3-D4DE-422E-8879-E715AFAACB7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EF64AB-2B89-40E1-8471-B4260FC3ECF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,10 @@
   </si>
   <si>
     <t>~ 2019-06-05 Working on stun arm, some unexpected problems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-06-06 Stun arm almost finished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1092,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>42</v>
@@ -1205,7 +1209,9 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="11"/>
       <c r="F23" s="4" t="s">

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EF64AB-2B89-40E1-8471-B4260FC3ECF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6697D6F-0C84-4E6E-8A5D-5689810B35AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
+    <workbookView xWindow="14250" yWindow="60" windowWidth="14460" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +275,10 @@
   </si>
   <si>
     <t>2019-06-06 Stun arm almost finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-06-07 Stun system something went wrong..? Not equiping weapons properly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1222,9 +1226,11 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="11"/>
       <c r="F24" s="4" t="s">

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6697D6F-0C84-4E6E-8A5D-5689810B35AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977821C2-BFEC-47AC-833C-618BF986C9E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14250" yWindow="60" windowWidth="14460" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>2019-06-07 Stun system something went wrong..? Not equiping weapons properly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-07-04 Gave up stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fuel system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player health/Death system</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,11 +527,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -838,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -873,7 +885,7 @@
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="18">
         <v>43831</v>
       </c>
     </row>
@@ -889,7 +901,7 @@
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>58</v>
       </c>
     </row>
@@ -941,14 +953,14 @@
       <c r="G7" s="7"/>
       <c r="H7" s="12">
         <f>SUM(G7:G581)</f>
-        <v>52.5</v>
+        <v>48.5</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
       </c>
       <c r="J7" s="13">
         <f>ROUND(H7/I7, 0)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1102,7 +1114,7 @@
         <v>42</v>
       </c>
       <c r="G16" s="7">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1114,12 +1126,14 @@
         <v>43</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
       <c r="F17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="7">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1164,14 +1178,11 @@
         <v>48</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1.5</v>
+      <c r="F20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="14">
+        <v>2</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1183,12 +1194,14 @@
         <v>49</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="11">
+        <v>0.5</v>
+      </c>
       <c r="F21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1202,10 +1215,10 @@
       <c r="D22" s="4"/>
       <c r="E22" s="11"/>
       <c r="F22" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G22" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1219,10 +1232,10 @@
       <c r="D23" s="4"/>
       <c r="E23" s="11"/>
       <c r="F23" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G23" s="7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H23" s="4"/>
     </row>
@@ -1234,10 +1247,10 @@
       <c r="D24" s="4"/>
       <c r="E24" s="11"/>
       <c r="F24" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G24" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1245,14 +1258,16 @@
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="7">
-        <v>3</v>
+      <c r="F25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1264,10 +1279,10 @@
       <c r="D26" s="4"/>
       <c r="E26" s="11"/>
       <c r="F26" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G26" s="7">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -1279,10 +1294,10 @@
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
       <c r="F27" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G27" s="7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -1294,10 +1309,10 @@
       <c r="D28" s="4"/>
       <c r="E28" s="11"/>
       <c r="F28" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G28" s="7">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -1309,10 +1324,10 @@
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
       <c r="F29" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G29" s="7">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H29" s="4"/>
     </row>
@@ -1322,10 +1337,10 @@
       <c r="D30" s="4"/>
       <c r="E30" s="11"/>
       <c r="F30" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G30" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -1337,10 +1352,10 @@
       <c r="D31" s="4"/>
       <c r="E31" s="11"/>
       <c r="F31" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G31" s="7">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1352,10 +1367,10 @@
       <c r="D32" s="4"/>
       <c r="E32" s="11"/>
       <c r="F32" s="4" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G32" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1366,8 +1381,12 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="7"/>
+      <c r="F33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="7">
+        <v>2.5</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -1377,8 +1396,12 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="7"/>
+      <c r="F34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="7">
+        <v>2.5</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977821C2-BFEC-47AC-833C-618BF986C9E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC44AF7-EC9A-4BD4-9FA2-214BDC945598}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14250" yWindow="60" windowWidth="14460" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,14 @@
   </si>
   <si>
     <t>Player health/Death system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-07-06 Back to work, lazy piece o shit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-07-06 Elevator finnished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,6 +540,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -851,7 +862,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -953,14 +964,14 @@
       <c r="G7" s="7"/>
       <c r="H7" s="12">
         <f>SUM(G7:G581)</f>
-        <v>48.5</v>
+        <v>46</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
       </c>
       <c r="J7" s="13">
         <f>ROUND(H7/I7, 0)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -983,7 +994,9 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
@@ -1113,9 +1126,7 @@
       <c r="F16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1132,9 +1143,7 @@
       <c r="F17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1145,12 +1154,13 @@
         <v>44</v>
       </c>
       <c r="D18" s="4"/>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
       <c r="F18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="7">
-        <v>2.5</v>
-      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1178,6 +1188,7 @@
         <v>48</v>
       </c>
       <c r="D20" s="4"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1275,7 +1286,9 @@
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="11"/>
       <c r="F26" s="4" t="s">

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC44AF7-EC9A-4BD4-9FA2-214BDC945598}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3DD9DC-B670-484C-9C22-51C8380F1C94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14250" yWindow="60" windowWidth="14460" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +299,86 @@
   </si>
   <si>
     <t>2019-07-06 Elevator finnished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-06 로그 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-07 총알 파편 시스템, 탄피, 창알 충돌 제작 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-08 다양한 무기 제작, 무기 수 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-09 장총 제작 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-12 장총 제작 짜증나기 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-13 장총 제작 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-15 샷건 제작 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-16 샷건 제작 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 2019-05-09 무기 시스템 개선, 실험용 적 (경비, 공격, 절벽 감지), 바닥 택스쳐 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-09 바닥 택스쳐 개선, 점프 애니메이션 수정, 데미지 계산 제작 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-25 총알 사라지는 버그 수정,  데미지 스탯 계산, 기본적인 웅크리기 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-26 웅크리기 수정, 적 죽음 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-29 뒤로 걷기 제작 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 2019-06-02 뒤로 걷기 완성, 전기 충격기 제작 중(어떤 이유인지 문제 계속 발생)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-06-03 전기 충격기 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 2019-06-05 전기 충격기 제작중, s예기치 못한 문제 발생;;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-06-06 전기충격기 거의 다 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-06-07 전기충격기 어떤 문제 생겨서 제대로 장착이 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-07-04 전기 충격기 포기 ㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~2019-07-06 제트팩 완성, 앨리베이터 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J34" sqref="C6:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -877,14 +957,15 @@
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -892,7 +973,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -900,7 +981,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -908,7 +989,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
@@ -916,7 +997,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>46</v>
       </c>
@@ -944,8 +1025,11 @@
       <c r="J6" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
@@ -973,8 +1057,11 @@
         <f>ROUND(H7/I7, 0)</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
@@ -992,8 +1079,11 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
@@ -1011,8 +1101,11 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="4" t="s">
         <v>31</v>
@@ -1028,8 +1121,11 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="C11" s="6" t="s">
         <v>32</v>
@@ -1045,8 +1141,11 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="C12" s="6" t="s">
         <v>33</v>
@@ -1062,8 +1161,11 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="C13" s="6" t="s">
         <v>35</v>
@@ -1079,8 +1181,11 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="6" t="s">
         <v>36</v>
@@ -1096,8 +1201,11 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>39</v>
@@ -1113,8 +1221,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="C16" s="6" t="s">
         <v>40</v>
@@ -1130,8 +1241,11 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="C17" s="6" t="s">
         <v>43</v>
@@ -1147,8 +1261,11 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="6" t="s">
         <v>44</v>
@@ -1164,8 +1281,11 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="C19" s="6" t="s">
         <v>45</v>
@@ -1181,8 +1301,11 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="C20" s="6" t="s">
         <v>48</v>
@@ -1198,8 +1321,11 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="C21" s="6" t="s">
         <v>49</v>
@@ -1217,8 +1343,11 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="C22" s="6" t="s">
         <v>61</v>
@@ -1234,8 +1363,11 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="C23" s="6" t="s">
         <v>62</v>
@@ -1249,8 +1381,11 @@
         <v>2.5</v>
       </c>
       <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="C24" s="6" t="s">
         <v>63</v>
@@ -1266,8 +1401,11 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25" s="6" t="s">
         <v>64</v>
@@ -1283,8 +1421,11 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="C26" s="6" t="s">
         <v>68</v>
@@ -1301,7 +1442,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1316,7 +1457,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1331,7 +1472,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1344,7 +1485,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1359,7 +1500,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1374,7 +1515,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3DD9DC-B670-484C-9C22-51C8380F1C94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51897A00-07DE-4FC9-BFAE-A8E7E13C4DED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>~2019-07-06 제트팩 완성, 앨리베이터 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~2019-07-15 Working on new enemy AI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J34" sqref="C6:J34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1048,14 +1052,14 @@
       <c r="G7" s="7"/>
       <c r="H7" s="12">
         <f>SUM(G7:G581)</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
       </c>
       <c r="J7" s="13">
         <f>ROUND(H7/I7, 0)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>70</v>
@@ -1291,12 +1295,14 @@
         <v>45</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11">
+        <v>0.5</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1444,7 +1450,9 @@
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
       <c r="F27" s="4" t="s">

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51897A00-07DE-4FC9-BFAE-A8E7E13C4DED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3615173D-C73B-47FF-9F9D-66BDCC85115D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,10 @@
   </si>
   <si>
     <t>~2019-07-15 Working on new enemy AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~2019-8-17 New enemy AI finished, Drones</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1052,14 +1056,14 @@
       <c r="G7" s="7"/>
       <c r="H7" s="12">
         <f>SUM(G7:G581)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
       </c>
       <c r="J7" s="13">
         <f>ROUND(H7/I7, 0)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>70</v>
@@ -1296,14 +1300,12 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="7">
-        <v>3</v>
-      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1467,7 +1469,9 @@
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="11"/>
       <c r="F28" s="4" t="s">

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3615173D-C73B-47FF-9F9D-66BDCC85115D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF742F4-B624-4E19-83AB-4B89CAFE4A63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Particle FX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Particle FX (Basic)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,6 +383,18 @@
   </si>
   <si>
     <t>~2019-8-17 New enemy AI finished, Drones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL 1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Particle FX (Advanced)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -628,9 +636,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -970,20 +975,20 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="18">
         <v>43831</v>
@@ -991,23 +996,23 @@
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>0</v>
@@ -1034,18 +1039,18 @@
         <v>22</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -1056,67 +1061,67 @@
       <c r="G7" s="7"/>
       <c r="H7" s="12">
         <f>SUM(G7:G581)</f>
-        <v>40</v>
+        <v>44.5</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
       </c>
       <c r="J7" s="13">
         <f>ROUND(H7/I7, 0)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="L8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="11">
@@ -1130,13 +1135,13 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="L10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="11">
@@ -1150,13 +1155,13 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="L11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="11">
@@ -1170,93 +1175,93 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="L12" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="C13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="11">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="L13" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="11">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="L15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="11">
         <v>0.8</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="L16" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="11">
@@ -1270,33 +1275,33 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="L17" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="15">
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="C19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="11">
@@ -1310,33 +1315,33 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="L19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="C20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="19"/>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="14">
-        <v>2</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G20" s="14"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="L20" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="C21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="11">
@@ -1352,13 +1357,13 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="L21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="C22" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="11"/>
@@ -1372,13 +1377,13 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="L22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="C23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="11"/>
@@ -1390,13 +1395,13 @@
       </c>
       <c r="H23" s="4"/>
       <c r="L23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="C24" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="11"/>
@@ -1410,18 +1415,18 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="L24" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="11"/>
       <c r="F25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="14">
         <v>1</v>
@@ -1430,13 +1435,13 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="L25" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="C26" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="11"/>
@@ -1453,7 +1458,7 @@
     <row r="27" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="C27" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
@@ -1470,7 +1475,7 @@
     <row r="28" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="11"/>
@@ -1532,11 +1537,11 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="7">
-        <v>3</v>
+      <c r="F32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="14">
+        <v>2</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1548,10 +1553,10 @@
       <c r="D33" s="4"/>
       <c r="E33" s="11"/>
       <c r="F33" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G33" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -1563,7 +1568,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="11"/>
       <c r="F34" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" s="7">
         <v>2.5</v>
@@ -1577,8 +1582,12 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="7"/>
+      <c r="F35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="7">
+        <v>4</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -1588,8 +1597,12 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="7"/>
+      <c r="F36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="7">
+        <v>3</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF742F4-B624-4E19-83AB-4B89CAFE4A63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2616500-426E-403D-875A-6FF08F72F88B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,10 @@
   </si>
   <si>
     <t>Particle FX (Advanced)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -954,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1345,7 +1349,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>23</v>
@@ -1366,7 +1370,9 @@
         <v>60</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="F22" s="4" t="s">
         <v>24</v>
       </c>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2616500-426E-403D-875A-6FF08F72F88B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF9EE06-287B-4C48-A9BB-32925029E6AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
+    <workbookView xWindow="14595" yWindow="120" windowWidth="14460" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~2019-8-25 Player/enemies death animation/script finished, UI finished, ammo system finished, animation fixes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1392,7 +1396,9 @@
         <v>61</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11">
+        <v>0.8</v>
+      </c>
       <c r="F23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1495,9 +1501,11 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
       <c r="F29" s="4" t="s">

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF9EE06-287B-4C48-A9BB-32925029E6AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6240F627-E53F-4CF3-800F-3114C5D4A821}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="120" windowWidth="14460" windowHeight="15480" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,6 +403,10 @@
   </si>
   <si>
     <t>~2019-8-25 Player/enemies death animation/script finished, UI finished, ammo system finished, animation fixes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More weapons</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1069,14 +1073,14 @@
       <c r="G7" s="7"/>
       <c r="H7" s="12">
         <f>SUM(G7:G581)</f>
-        <v>44.5</v>
+        <v>47.5</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
       </c>
       <c r="J7" s="13">
         <f>ROUND(H7/I7, 0)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>69</v>
@@ -1397,7 +1401,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="11">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>7</v>
@@ -1626,8 +1630,12 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="7"/>
+      <c r="F37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="7">
+        <v>3</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6240F627-E53F-4CF3-800F-3114C5D4A821}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D12AC58-1601-4E03-9AE7-8C39323271F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,10 +395,6 @@
   </si>
   <si>
     <t>Particle FX (Advanced)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -966,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1073,14 +1069,14 @@
       <c r="G7" s="7"/>
       <c r="H7" s="12">
         <f>SUM(G7:G581)</f>
-        <v>47.5</v>
+        <v>44.5</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
       </c>
       <c r="J7" s="13">
         <f>ROUND(H7/I7, 0)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>69</v>
@@ -1378,15 +1374,13 @@
         <v>60</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="11" t="s">
-        <v>93</v>
+      <c r="E22" s="11">
+        <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="7">
-        <v>3</v>
-      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1508,7 +1502,7 @@
     <row r="29" spans="1:12" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
@@ -1631,7 +1625,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="11"/>
       <c r="F37" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G37" s="7">
         <v>3</v>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D12AC58-1601-4E03-9AE7-8C39323271F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE25F72-2541-4E43-AEAB-2368A00D97FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,6 +403,14 @@
   </si>
   <si>
     <t>More weapons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~2019-10-12 Added BG, BG parallax, bullet contact effects, grenades and explosives and SFX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1069,14 +1077,14 @@
       <c r="G7" s="7"/>
       <c r="H7" s="12">
         <f>SUM(G7:G581)</f>
-        <v>44.5</v>
+        <v>36.5</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
       </c>
       <c r="J7" s="13">
         <f>ROUND(H7/I7, 0)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>69</v>
@@ -1358,9 +1366,7 @@
       <c r="F21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="7">
-        <v>1.5</v>
-      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1400,9 +1406,7 @@
       <c r="F23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="7">
-        <v>2.5</v>
-      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="4"/>
       <c r="L23" s="6" t="s">
         <v>85</v>
@@ -1414,13 +1418,13 @@
         <v>62</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11">
+        <v>0.9</v>
+      </c>
       <c r="F24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="7">
-        <v>3</v>
-      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1434,13 +1438,13 @@
         <v>63</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="14">
-        <v>1</v>
-      </c>
+      <c r="G25" s="14"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1454,13 +1458,13 @@
         <v>67</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="7">
-        <v>2.5</v>
-      </c>
+      <c r="E26" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="14"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1473,10 +1477,10 @@
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
       <c r="F27" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G27" s="7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -1490,10 +1494,10 @@
       <c r="D28" s="4"/>
       <c r="E28" s="11"/>
       <c r="F28" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G28" s="7">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -1507,23 +1511,25 @@
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
       <c r="F29" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G29" s="7">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="11"/>
       <c r="F30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" s="7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -1535,10 +1541,10 @@
       <c r="D31" s="4"/>
       <c r="E31" s="11"/>
       <c r="F31" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G31" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1549,11 +1555,11 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="14">
-        <v>2</v>
+      <c r="F32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="7">
+        <v>4.5</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1564,11 +1570,11 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="7">
-        <v>3</v>
+      <c r="F33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="14">
+        <v>2</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -1580,10 +1586,10 @@
       <c r="D34" s="4"/>
       <c r="E34" s="11"/>
       <c r="F34" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G34" s="7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -1595,10 +1601,10 @@
       <c r="D35" s="4"/>
       <c r="E35" s="11"/>
       <c r="F35" s="4" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="G35" s="7">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -1610,10 +1616,10 @@
       <c r="D36" s="4"/>
       <c r="E36" s="11"/>
       <c r="F36" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -1625,7 +1631,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="11"/>
       <c r="F37" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G37" s="7">
         <v>3</v>
@@ -1639,8 +1645,12 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="7"/>
+      <c r="F38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="7">
+        <v>3</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE25F72-2541-4E43-AEAB-2368A00D97FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF3B09-69E9-4FEF-A32B-212467BF13D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Basecamp (Lobby)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level proggression system</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,6 +407,70 @@
   </si>
   <si>
     <t>~2019-10-12 Added BG, BG parallax, bullet contact effects, grenades and explosives and SFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~2019-10-17 New mouse cursor added, grenade limitation and UI, screen divider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basecamp (Lobby) prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More grenades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interactable props</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL 1-2 ~ 1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More tiles (Port)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More props</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More NPCs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loot system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosive props</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +481,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +544,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -595,7 +664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -652,6 +721,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -968,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -991,20 +1063,20 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="18">
         <v>43831</v>
@@ -1012,23 +1084,23 @@
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>0</v>
@@ -1040,7 +1112,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>12</v>
@@ -1049,24 +1121,24 @@
         <v>9</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="L6" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -1077,67 +1149,67 @@
       <c r="G7" s="7"/>
       <c r="H7" s="12">
         <f>SUM(G7:G581)</f>
-        <v>36.5</v>
+        <v>73</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
       </c>
       <c r="J7" s="13">
         <f>ROUND(H7/I7, 0)</f>
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="L8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="11">
@@ -1151,13 +1223,13 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="L10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="C11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="11">
@@ -1171,13 +1243,13 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="L11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="C12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="11">
@@ -1191,93 +1263,93 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="L12" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="11">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="L13" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="11">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="L15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="11">
         <v>0.8</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="L16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="11">
@@ -1291,33 +1363,33 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="L17" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="15">
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="C19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="11">
@@ -1331,73 +1403,73 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="L19" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="C20" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="15">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="L20" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="C21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="11">
         <v>0.8</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="L21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="C22" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="11">
         <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="L22" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="C23" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="11">
@@ -1409,60 +1481,60 @@
       <c r="G23" s="7"/>
       <c r="H23" s="4"/>
       <c r="L23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="C24" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="11">
         <v>0.9</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="L24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="11">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="L25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="C26" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="4"/>
@@ -1472,7 +1544,7 @@
     <row r="27" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="C27" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
@@ -1489,12 +1561,12 @@
     <row r="28" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="11"/>
       <c r="F28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" s="7">
         <v>3</v>
@@ -1506,7 +1578,7 @@
     <row r="29" spans="1:12" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
@@ -1521,12 +1593,12 @@
     <row r="30" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="11"/>
       <c r="F30" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" s="7">
         <v>3.5</v>
@@ -1535,13 +1607,15 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="11"/>
       <c r="F31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" s="7">
         <v>4</v>
@@ -1556,7 +1630,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="11"/>
       <c r="F32" s="4" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G32" s="7">
         <v>4.5</v>
@@ -1571,7 +1645,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="11"/>
       <c r="F33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G33" s="14">
         <v>2</v>
@@ -1586,7 +1660,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="11"/>
       <c r="F34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G34" s="7">
         <v>3</v>
@@ -1601,7 +1675,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="11"/>
       <c r="F35" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G35" s="7">
         <v>2.5</v>
@@ -1616,7 +1690,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="11"/>
       <c r="F36" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G36" s="7">
         <v>4</v>
@@ -1631,7 +1705,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="11"/>
       <c r="F37" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="7">
         <v>3</v>
@@ -1646,7 +1720,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="11"/>
       <c r="F38" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G38" s="7">
         <v>3</v>
@@ -1655,41 +1729,264 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E39" s="19"/>
+      <c r="F39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E40" s="19"/>
+      <c r="F40" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E41" s="19"/>
+      <c r="F41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E42" s="19"/>
+      <c r="F42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E43" s="19"/>
+      <c r="F43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E44" s="19"/>
+      <c r="F44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E45" s="19"/>
+      <c r="F45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E46" s="19"/>
+      <c r="F46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E47" s="19"/>
+      <c r="F47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E48" s="19"/>
+      <c r="F48" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E49" s="19"/>
+      <c r="F49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="19"/>
+      <c r="F51" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="19"/>
+      <c r="F52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="19"/>
+      <c r="F53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="19"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="19"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="19"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="19"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="19"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="19"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="19"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="19"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="19"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="19"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="19"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="19"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="19"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="19"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="19"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="19"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="19"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="19"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="19"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="19"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="19"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="19"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="19"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="19"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="19"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="19"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="19"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="5:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="19"/>
+      <c r="F81" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF3B09-69E9-4FEF-A32B-212467BF13D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788AF793-0EEE-440C-B698-7A1C8FF7BEE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788AF793-0EEE-440C-B698-7A1C8FF7BEE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5915EAD9-F69C-4C7E-8825-7F82BB3DA9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +471,18 @@
   </si>
   <si>
     <t>Shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jetpack overheat system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRE ALPHA RELEASE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +736,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1042,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1149,14 +1164,14 @@
       <c r="G7" s="7"/>
       <c r="H7" s="12">
         <f>SUM(G7:G581)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
       </c>
       <c r="J7" s="13">
         <f>ROUND(H7/I7, 0)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>68</v>
@@ -1629,11 +1644,11 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="7">
-        <v>4.5</v>
+      <c r="F32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="14">
+        <v>1</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1645,7 +1660,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="11"/>
       <c r="F33" s="1" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G33" s="14">
         <v>2</v>
@@ -1660,10 +1675,10 @@
       <c r="D34" s="4"/>
       <c r="E34" s="11"/>
       <c r="F34" s="4" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G34" s="7">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -1674,11 +1689,11 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="7">
-        <v>2.5</v>
+      <c r="F35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="14">
+        <v>2</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -1690,10 +1705,10 @@
       <c r="D36" s="4"/>
       <c r="E36" s="11"/>
       <c r="F36" s="4" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G36" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -1705,10 +1720,10 @@
       <c r="D37" s="4"/>
       <c r="E37" s="11"/>
       <c r="F37" s="4" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="G37" s="7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -1720,10 +1735,10 @@
       <c r="D38" s="4"/>
       <c r="E38" s="11"/>
       <c r="F38" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G38" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -1733,7 +1748,7 @@
       <c r="A39" s="2"/>
       <c r="E39" s="19"/>
       <c r="F39" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G39" s="7">
         <v>3</v>
@@ -1743,17 +1758,17 @@
       <c r="A40" s="2"/>
       <c r="E40" s="19"/>
       <c r="F40" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G40" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="E41" s="19"/>
       <c r="F41" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G41" s="7">
         <v>3</v>
@@ -1763,7 +1778,7 @@
       <c r="A42" s="2"/>
       <c r="E42" s="19"/>
       <c r="F42" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G42" s="7">
         <v>2</v>
@@ -1773,47 +1788,47 @@
       <c r="A43" s="2"/>
       <c r="E43" s="19"/>
       <c r="F43" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G43" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="E44" s="19"/>
       <c r="F44" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G44" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="E45" s="19"/>
       <c r="F45" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G45" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="E46" s="19"/>
       <c r="F46" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G46" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="E47" s="19"/>
       <c r="F47" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G47" s="7">
         <v>2</v>
@@ -1823,17 +1838,17 @@
       <c r="A48" s="2"/>
       <c r="E48" s="19"/>
       <c r="F48" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G48" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="E49" s="19"/>
       <c r="F49" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G49" s="7">
         <v>2</v>
@@ -1843,16 +1858,16 @@
       <c r="A50" s="2"/>
       <c r="E50" s="19"/>
       <c r="F50" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G50" s="7">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="19"/>
       <c r="F51" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G51" s="7">
         <v>2</v>
@@ -1861,32 +1876,44 @@
     <row r="52" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="19"/>
       <c r="F52" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G52" s="7">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E53" s="19"/>
       <c r="F53" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G53" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E54" s="19"/>
-      <c r="F54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E55" s="19"/>
-      <c r="F55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="19"/>
-      <c r="F56" s="4"/>
+      <c r="F56" s="20" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="57" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E57" s="19"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5915EAD9-F69C-4C7E-8825-7F82BB3DA9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D50DF44-7A0D-4075-A23D-F4EC39CB0B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1164,7 +1164,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="12">
         <f>SUM(G7:G581)</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
@@ -1611,7 +1611,9 @@
         <v>95</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="11">
+        <v>0.5</v>
+      </c>
       <c r="F30" s="4" t="s">
         <v>18</v>
       </c>
@@ -1643,13 +1645,13 @@
       <c r="A32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G32" s="14">
-        <v>1</v>
-      </c>
+      <c r="G32" s="14"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>

--- a/Task logs.xlsx
+++ b/Task logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3HanbieDir\Hanbie Laboratories\Programs\Programming\Unity\Games\Flammable Blood\Flammable_Blood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D50DF44-7A0D-4075-A23D-F4EC39CB0B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7B65AA-3A17-4386-A765-6973F52630B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D45984C-7A51-414D-98AA-C9EF43A1D040}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>Log:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cleaning and mastering #1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019-06-03 Will be working till 15th of June (Exam coming up on July), that is about 2 weeks from now.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,6 +479,14 @@
   </si>
   <si>
     <t>PRE ALPHA RELEASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleaning and mastering #1         -Fix Enemy1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleaning and mastering #2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,6 +742,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1057,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371CB11E-88AA-4DD0-87B3-20BADBE1AC76}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1078,20 +1085,20 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="18">
         <v>43831</v>
@@ -1099,18 +1106,18 @@
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1142,7 +1149,7 @@
         <v>21</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -1164,22 +1171,22 @@
       <c r="G7" s="7"/>
       <c r="H7" s="12">
         <f>SUM(G7:G581)</f>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
       </c>
       <c r="J7" s="13">
         <f>ROUND(H7/I7, 0)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>27</v>
@@ -1196,12 +1203,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="L8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>28</v>
@@ -1218,7 +1225,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1238,7 +1245,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="L10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1258,7 +1265,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="L11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1278,7 +1285,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="L12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1298,7 +1305,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="L13" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1318,7 +1325,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -1338,7 +1345,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="L15" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1358,7 +1365,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="L16" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1378,7 +1385,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="L17" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1398,7 +1405,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1418,7 +1425,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="L19" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1431,14 +1438,14 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="L20" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1458,13 +1465,13 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="L21" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="C22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="11">
@@ -1478,13 +1485,13 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="L22" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="C23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="11">
@@ -1496,13 +1503,13 @@
       <c r="G23" s="7"/>
       <c r="H23" s="4"/>
       <c r="L23" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="C24" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="11">
@@ -1516,40 +1523,40 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="L24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="11">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="L25" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="C26" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="11">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="4"/>
@@ -1559,7 +1566,7 @@
     <row r="27" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="C27" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
@@ -1576,7 +1583,7 @@
     <row r="28" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="11"/>
@@ -1593,7 +1600,7 @@
     <row r="29" spans="1:12" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
@@ -1608,7 +1615,7 @@
     <row r="30" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="11">
@@ -1627,7 +1634,7 @@
     <row r="31" spans="1:12" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="11"/>
@@ -1649,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="4"/>
@@ -1662,7 +1669,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="11"/>
       <c r="F33" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G33" s="14">
         <v>2</v>
@@ -1677,7 +1684,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="11"/>
       <c r="F34" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G34" s="7">
         <v>4.5</v>
@@ -1692,7 +1699,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="11"/>
       <c r="F35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G35" s="14">
         <v>2</v>
@@ -1721,8 +1728,8 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="4" t="s">
-        <v>48</v>
+      <c r="F37" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="G37" s="7">
         <v>2.5</v>
@@ -1737,7 +1744,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="11"/>
       <c r="F38" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" s="7">
         <v>4</v>
@@ -1750,7 +1757,7 @@
       <c r="A39" s="2"/>
       <c r="E39" s="19"/>
       <c r="F39" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G39" s="7">
         <v>3</v>
@@ -1760,7 +1767,7 @@
       <c r="A40" s="2"/>
       <c r="E40" s="19"/>
       <c r="F40" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G40" s="7">
         <v>3</v>
@@ -1770,7 +1777,7 @@
       <c r="A41" s="2"/>
       <c r="E41" s="19"/>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G41" s="7">
         <v>3</v>
@@ -1780,7 +1787,7 @@
       <c r="A42" s="2"/>
       <c r="E42" s="19"/>
       <c r="F42" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G42" s="7">
         <v>2</v>
@@ -1790,7 +1797,7 @@
       <c r="A43" s="2"/>
       <c r="E43" s="19"/>
       <c r="F43" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G43" s="7">
         <v>3</v>
@@ -1800,7 +1807,7 @@
       <c r="A44" s="2"/>
       <c r="E44" s="19"/>
       <c r="F44" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G44" s="7">
         <v>2</v>
@@ -1810,7 +1817,7 @@
       <c r="A45" s="2"/>
       <c r="E45" s="19"/>
       <c r="F45" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G45" s="7">
         <v>4</v>
@@ -1820,7 +1827,7 @@
       <c r="A46" s="2"/>
       <c r="E46" s="19"/>
       <c r="F46" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G46" s="7">
         <v>4</v>
@@ -1830,7 +1837,7 @@
       <c r="A47" s="2"/>
       <c r="E47" s="19"/>
       <c r="F47" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G47" s="7">
         <v>2</v>
@@ -1840,7 +1847,7 @@
       <c r="A48" s="2"/>
       <c r="E48" s="19"/>
       <c r="F48" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G48" s="7">
         <v>3</v>
@@ -1850,7 +1857,7 @@
       <c r="A49" s="2"/>
       <c r="E49" s="19"/>
       <c r="F49" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G49" s="7">
         <v>2</v>
@@ -1860,7 +1867,7 @@
       <c r="A50" s="2"/>
       <c r="E50" s="19"/>
       <c r="F50" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G50" s="7">
         <v>1</v>
@@ -1869,7 +1876,7 @@
     <row r="51" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="19"/>
       <c r="F51" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G51" s="7">
         <v>2</v>
@@ -1878,7 +1885,7 @@
     <row r="52" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="19"/>
       <c r="F52" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G52" s="7">
         <v>2.5</v>
@@ -1887,7 +1894,7 @@
     <row r="53" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E53" s="19"/>
       <c r="F53" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G53" s="7">
         <v>2</v>
@@ -1896,7 +1903,7 @@
     <row r="54" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E54" s="19"/>
       <c r="F54" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G54" s="7">
         <v>1</v>
@@ -1905,7 +1912,7 @@
     <row r="55" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E55" s="19"/>
       <c r="F55" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G55" s="7">
         <v>3</v>
@@ -1913,13 +1920,18 @@
     </row>
     <row r="56" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="19"/>
-      <c r="F56" s="20" t="s">
-        <v>114</v>
+      <c r="F56" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G56" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E57" s="19"/>
-      <c r="F57" s="4"/>
+      <c r="F57" s="20" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="58" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E58" s="19"/>
